--- a/pslsx/3.xlsx
+++ b/pslsx/3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1B7404-9488-4C01-B4D0-43CC329A47B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" windowHeight="12645" windowWidth="22260" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="sample3_1" sheetId="1" r:id="rId1"/>
@@ -65,81 +65,93 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="9">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="6"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
       <b/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
       <b/>
       <i/>
-      <u/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <family val="3"/>
       <i/>
-      <u/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -152,62 +164,80 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
+        <fgColor rgb="FF7F7F7F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD6DCE4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -219,8 +249,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -500,14 +531,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
@@ -550,7 +580,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="7">
+      <c r="B7" s="13">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -558,17 +588,17 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="12">
+      <c r="B9" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="11">
+      <c r="B10" s="13">
         <v>10</v>
       </c>
     </row>
@@ -580,12 +610,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
@@ -643,12 +674,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
@@ -706,12 +738,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
@@ -769,14 +802,13 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="topLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
